--- a/PREJUEGO/1.ELICITACION/1.3 Historias de usuario/G4_Historias_De_Usuario.xlsx
+++ b/PREJUEGO/1.ELICITACION/1.3 Historias de usuario/G4_Historias_De_Usuario.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUNA\Documents\METODOLOGIA DE DESARROLLO DE SOFTWARE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Clases mayo-septiem\Trabajos de MetSW\Proyecto Semestre\4618_G4_MDSW\PREJUEGO\1.ELICITACION\1.3 Historias de usuario\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Formato descripción HU" sheetId="1" r:id="rId1"/>
     <sheet name="Historia de Usuario" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -290,7 +290,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -929,16 +929,36 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -947,26 +967,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1045,7 +1045,7 @@
         <xdr:cNvPr id="2" name="image1.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1079,7 +1079,7 @@
         <xdr:cNvPr id="3" name="image2.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1306,7 +1306,7 @@
   </sheetPr>
   <dimension ref="B1:O1001"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
@@ -7761,23 +7761,23 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="2:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="70"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="67"/>
     </row>
     <row r="7" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="16"/>
@@ -7817,15 +7817,15 @@
         <v>1</v>
       </c>
       <c r="D9" s="18"/>
-      <c r="E9" s="69" t="s">
+      <c r="E9" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="70"/>
+      <c r="F9" s="67"/>
       <c r="G9" s="18"/>
-      <c r="H9" s="69" t="s">
+      <c r="H9" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="70"/>
+      <c r="I9" s="67"/>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
@@ -7840,17 +7840,17 @@
         <v>20</v>
       </c>
       <c r="D10" s="21"/>
-      <c r="E10" s="71" t="str">
+      <c r="E10" s="69" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O20,5,0)</f>
         <v>Cliente (Administacion)</v>
       </c>
-      <c r="F10" s="70"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="22"/>
-      <c r="H10" s="71" t="str">
+      <c r="H10" s="69" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O20,11,0)</f>
         <v>No iniciado</v>
       </c>
-      <c r="I10" s="70"/>
+      <c r="I10" s="67"/>
       <c r="J10" s="22"/>
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
@@ -7882,15 +7882,15 @@
         <v>42</v>
       </c>
       <c r="D12" s="21"/>
-      <c r="E12" s="69" t="s">
+      <c r="E12" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="70"/>
+      <c r="F12" s="67"/>
       <c r="G12" s="22"/>
-      <c r="H12" s="69" t="s">
+      <c r="H12" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="70"/>
+      <c r="I12" s="67"/>
       <c r="J12" s="22"/>
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
@@ -7906,17 +7906,17 @@
         <v>5</v>
       </c>
       <c r="D13" s="21"/>
-      <c r="E13" s="71" t="str">
+      <c r="E13" s="69" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O20,10,0)</f>
         <v>Alta</v>
       </c>
-      <c r="F13" s="70"/>
+      <c r="F13" s="67"/>
       <c r="G13" s="22"/>
-      <c r="H13" s="71" t="str">
+      <c r="H13" s="69" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O20,7,0)</f>
         <v>Ocler Delgado</v>
       </c>
-      <c r="I13" s="70"/>
+      <c r="I13" s="67"/>
       <c r="J13" s="22"/>
       <c r="K13" s="24"/>
       <c r="L13" s="24"/>
@@ -7947,65 +7947,65 @@
       <c r="C15" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="76" t="str">
+      <c r="D15" s="70" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O20,3,0)</f>
         <v>Facilitar la busqueda de datos de trabajadores por varios campos</v>
       </c>
-      <c r="E15" s="57"/>
+      <c r="E15" s="56"/>
       <c r="F15" s="19"/>
       <c r="G15" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="76" t="str">
+      <c r="H15" s="70" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O20,4,0)</f>
         <v>Crearemos una opcion de busqueda que adminta varias referencias (Nombre, Cedula, puesto)</v>
       </c>
-      <c r="I15" s="56"/>
-      <c r="J15" s="57"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="56"/>
       <c r="K15" s="19"/>
       <c r="L15" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="M15" s="55" t="str">
+      <c r="M15" s="62" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O20,6,0)</f>
         <v>Accederemos al archivo de texto el cual almacena los datos y buscaremos los datos requeridos.</v>
       </c>
-      <c r="N15" s="56"/>
-      <c r="O15" s="57"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="56"/>
       <c r="P15" s="36"/>
     </row>
     <row r="16" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="35"/>
       <c r="C16" s="53"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="59"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="61"/>
       <c r="F16" s="19"/>
       <c r="G16" s="53"/>
-      <c r="H16" s="58"/>
+      <c r="H16" s="60"/>
       <c r="I16" s="51"/>
-      <c r="J16" s="59"/>
+      <c r="J16" s="61"/>
       <c r="K16" s="19"/>
       <c r="L16" s="53"/>
-      <c r="M16" s="58"/>
+      <c r="M16" s="60"/>
       <c r="N16" s="51"/>
-      <c r="O16" s="59"/>
+      <c r="O16" s="61"/>
       <c r="P16" s="36"/>
     </row>
     <row r="17" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="35"/>
       <c r="C17" s="54"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="62"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
       <c r="F17" s="19"/>
       <c r="G17" s="54"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="62"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="58"/>
       <c r="K17" s="19"/>
       <c r="L17" s="54"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="62"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="58"/>
       <c r="P17" s="36"/>
     </row>
     <row r="18" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8027,41 +8027,41 @@
     </row>
     <row r="19" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="35"/>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="63" t="str">
+      <c r="D19" s="56"/>
+      <c r="E19" s="71" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O20,14,0)</f>
         <v>Busqueda de registros</v>
       </c>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="65"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="73"/>
       <c r="P19" s="36"/>
     </row>
     <row r="20" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="35"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="68"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="76"/>
       <c r="P20" s="36"/>
     </row>
     <row r="21" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8083,63 +8083,63 @@
     </row>
     <row r="22" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="35"/>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="57"/>
-      <c r="E22" s="55" t="str">
+      <c r="D22" s="56"/>
+      <c r="E22" s="62" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O20,12,0)</f>
         <v>Registrar un par de trabajadores y buscar en la nueva pantalla a alguno de ellos, verificando que la busqueda se realizo con éxito</v>
       </c>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="57"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="56"/>
       <c r="I22" s="19"/>
-      <c r="J22" s="73" t="s">
+      <c r="J22" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="57"/>
-      <c r="L22" s="55">
+      <c r="K22" s="56"/>
+      <c r="L22" s="62">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O20,13,0)</f>
         <v>44731</v>
       </c>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="57"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="56"/>
       <c r="P22" s="36"/>
     </row>
     <row r="23" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="35"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="58"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="60"/>
       <c r="F23" s="51"/>
       <c r="G23" s="51"/>
-      <c r="H23" s="59"/>
+      <c r="H23" s="61"/>
       <c r="I23" s="19"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="58"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="60"/>
       <c r="M23" s="51"/>
       <c r="N23" s="51"/>
-      <c r="O23" s="59"/>
+      <c r="O23" s="61"/>
       <c r="P23" s="36"/>
     </row>
     <row r="24" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="35"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="58"/>
       <c r="I24" s="19"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="62"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="58"/>
       <c r="P24" s="36"/>
     </row>
     <row r="25" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9156,6 +9156,11 @@
     <row r="1020" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M15:O17"/>
+    <mergeCell ref="E19:O20"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C19:D20"/>
     <mergeCell ref="C22:D24"/>
@@ -9172,11 +9177,6 @@
     <mergeCell ref="D15:E17"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="H15:J17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M15:O17"/>
-    <mergeCell ref="E19:O20"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:I11">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
